--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario4.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario4.xlsx
@@ -956,7 +956,7 @@
         <v>1367.156</v>
       </c>
       <c r="C1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -2776,7 +2776,7 @@
         <v>1160.121</v>
       </c>
       <c r="C1" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -3606,7 +3606,7 @@
         <v>1576.034</v>
       </c>
       <c r="C1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -4096,7 +4096,7 @@
         <v>1645.074</v>
       </c>
       <c r="C1" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -5666,7 +5666,7 @@
         <v>750.274</v>
       </c>
       <c r="C1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -6196,7 +6196,7 @@
         <v>1841.908</v>
       </c>
       <c r="C1" t="n">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -7386,7 +7386,7 @@
         <v>2365.316</v>
       </c>
       <c r="C1" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -8296,7 +8296,7 @@
         <v>664.204</v>
       </c>
       <c r="C1" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -9106,7 +9106,7 @@
         <v>2438.901</v>
       </c>
       <c r="C1" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -10676,7 +10676,7 @@
         <v>678.409</v>
       </c>
       <c r="C1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -10936,7 +10936,7 @@
         <v>1503.129</v>
       </c>
       <c r="C1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
